--- a/Global fatality rate.xlsx
+++ b/Global fatality rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waith\OneDrive\Documents\GitHub\Covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3FDAA9-99E2-45C6-BD17-1FFE31BFE9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FE1BC5-ACEA-4DD4-A3E7-286A0E5F76D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,6 +86,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{861CA8E3-AD72-4AD9-B736-8A49A25B6E1C}" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0">
+  <autoFilter ref="A1:C1048576" xr:uid="{861CA8E3-AD72-4AD9-B736-8A49A25B6E1C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CFD8C013-27FB-4CCB-90F8-03BBF8D8D45B}" name="total_cases"/>
+    <tableColumn id="2" xr3:uid="{832F26B3-33FF-4D4B-AD9E-05FF0AD858FA}" name="total_deaths"/>
+    <tableColumn id="3" xr3:uid="{53765F8F-E333-4210-AC5E-59F7AA4BFAA3}" name="Global_Death_Rate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,7 +399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -420,5 +434,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>